--- a/AcademicSelf-Regulation/html/resources/QuestionsText.xlsx
+++ b/AcademicSelf-Regulation/html/resources/QuestionsText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="476">
   <si>
     <t>GRE</t>
   </si>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AA1"/>
+      <selection activeCell="L5" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,6 +2116,7 @@
     <col min="7" max="7" width="29.42578125" customWidth="1"/>
     <col min="8" max="8" width="96.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -2482,6 +2483,9 @@
       </c>
       <c r="M6" s="3" t="s">
         <v>295</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>205</v>
